--- a/Data-save/data/dataExcel.xlsx
+++ b/Data-save/data/dataExcel.xlsx
@@ -2519,6 +2519,9 @@
       </c>
     </row>
     <row r="51" spans="1:13">
+      <c r="A51">
+        <v>50</v>
+      </c>
       <c r="B51">
         <v>20</v>
       </c>
